--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.700000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.700000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.165617270034406e-29</v>
+        <v>7.036737439153381e-29</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>7.124641514481571e-29</v>
+        <v>7.176575614032972e-29</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>7.151848915757106e-29</v>
+        <v>7.342912899724545e-29</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>7.241928554225529e-29</v>
+        <v>7.534043913484792e-29</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>7.389569510251427e-29</v>
+        <v>7.748263272571032e-29</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>7.589460864199395e-29</v>
+        <v>7.983865594240396e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>7.836291696434382e-29</v>
+        <v>8.239145495750354e-29</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>8.124751087320332e-29</v>
+        <v>8.512397594357361e-29</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>8.449528117222128e-29</v>
+        <v>8.801916507318861e-29</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>8.805311866504858e-29</v>
+        <v>9.105996851892392e-29</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>9.186791415532172e-29</v>
+        <v>9.422933245334277e-29</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>9.588655844669117e-29</v>
+        <v>9.751020304902031e-29</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000559423428084e-28</v>
+        <v>1.008855264785322e-28</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.043229566473084e-28</v>
+        <v>1.04338248914441e-28</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.086344921638424e-28</v>
+        <v>1.078513165293222e-28</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.129374396960565e-28</v>
+        <v>1.114076754957471e-28</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.17178690047602e-28</v>
+        <v>1.149902719862915e-28</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.213051340221139e-28</v>
+        <v>1.185820521735175e-28</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.252651472532162e-28</v>
+        <v>1.221661135530548e-28</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.290369649182896e-28</v>
+        <v>1.257285966877078e-28</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.326264758799383e-28</v>
+        <v>1.292584604024108e-28</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.360406118443284e-28</v>
+        <v>1.327447698011294e-28</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.392863045176214e-28</v>
+        <v>1.361765899878244e-28</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.423704856059826e-28</v>
+        <v>1.395429860664613e-28</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.45300086815565e-28</v>
+        <v>1.428330231409919e-28</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.480820398525342e-28</v>
+        <v>1.460357663153817e-28</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.507232764230549e-28</v>
+        <v>1.491402806935957e-28</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.532307282332813e-28</v>
+        <v>1.521356313795865e-28</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.556113269893785e-28</v>
+        <v>1.550108834773193e-28</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.578720043975076e-28</v>
+        <v>1.577551020907549e-28</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.600196921638327e-28</v>
+        <v>1.603573523238575e-28</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.620613219945095e-28</v>
+        <v>1.628066992805813e-28</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.640038255957021e-28</v>
+        <v>1.650922080648906e-28</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.658541346735744e-28</v>
+        <v>1.672029437807491e-28</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.676172503943908e-28</v>
+        <v>1.691287933950674e-28</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.692852533239548e-28</v>
+        <v>1.70865144389379e-28</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.708449211358801e-28</v>
+        <v>1.724096417746593e-28</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.722830153356177e-28</v>
+        <v>1.737599374449311e-28</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.735862974286253e-28</v>
+        <v>1.749136832942236e-28</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.747415289203581e-28</v>
+        <v>1.758685312165635e-28</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.757354713162725e-28</v>
+        <v>1.766221331059786e-28</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.765548861218214e-28</v>
+        <v>1.771721408564938e-28</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.771865348424614e-28</v>
+        <v>1.775162063621369e-28</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.776171789836483e-28</v>
+        <v>1.776519815169352e-28</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.778335800508361e-28</v>
+        <v>1.775771182149149e-28</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.77822499549481e-28</v>
+        <v>1.772892683501032e-28</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.775706989850382e-28</v>
+        <v>1.767860838165271e-28</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.770649398629623e-28</v>
+        <v>1.760652165082124e-28</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.762919836887097e-28</v>
+        <v>1.751243183191877e-28</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.752407301022565e-28</v>
+        <v>1.73962475763352e-28</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.739275665628001e-28</v>
+        <v>1.725972188020716e-28</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.723879500736261e-28</v>
+        <v>1.710588724508359e-28</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.706577212324845e-28</v>
+        <v>1.693780191047484e-28</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.687727206371243e-28</v>
+        <v>1.675852411589117e-28</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.66768788885302e-28</v>
+        <v>1.657111210084357e-28</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.64681766574767e-28</v>
+        <v>1.637862410484234e-28</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.625474943032709e-28</v>
+        <v>1.618411836739798e-28</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.604018126685624e-28</v>
+        <v>1.599065312802076e-28</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.582805622683989e-28</v>
+        <v>1.580128662622171e-28</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.562195837005291e-28</v>
+        <v>1.561907710151107e-28</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.542547175627021e-28</v>
+        <v>1.544708279339916e-28</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.524207994492761e-28</v>
+        <v>1.528826771564132e-28</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.507279483852743e-28</v>
+        <v>1.514327853916097e-28</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.491606429466543e-28</v>
+        <v>1.501035797217759e-28</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.477021718520161e-28</v>
+        <v>1.488763716586642e-28</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.463358238199653e-28</v>
+        <v>1.477324727140318e-28</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.450448875691016e-28</v>
+        <v>1.46653194399631e-28</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.438126518180253e-28</v>
+        <v>1.456198482272145e-28</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.426224052853413e-28</v>
+        <v>1.446137457085389e-28</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.414574366896499e-28</v>
+        <v>1.436161983553569e-28</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.403010347495512e-28</v>
+        <v>1.42608517679421e-28</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.3913648818365e-28</v>
+        <v>1.415720151924879e-28</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.379470857105466e-28</v>
+        <v>1.404880024063103e-28</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.367161160488428e-28</v>
+        <v>1.393377908326422e-28</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.354268679171386e-28</v>
+        <v>1.381026919832357e-28</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.340626300340392e-28</v>
+        <v>1.367640173698482e-28</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.326066911181446e-28</v>
+        <v>1.353030785042321e-28</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.310423398880546e-28</v>
+        <v>1.337011868981392e-28</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.293528650623751e-28</v>
+        <v>1.319396540633275e-28</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.275215553597057e-28</v>
+        <v>1.299997915115492e-28</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.255316994986483e-28</v>
+        <v>1.278629107545581e-28</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.233665861978018e-28</v>
+        <v>1.25510323304105e-28</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.210095041757735e-28</v>
+        <v>1.229233406719501e-28</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.184437421511625e-28</v>
+        <v>1.200832743698444e-28</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.156525888425668e-28</v>
+        <v>1.169714359095376e-28</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.126193329685955e-28</v>
+        <v>1.135691368027919e-28</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.093272632478468e-28</v>
+        <v>1.098576885613572e-28</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.057745436617681e-28</v>
+        <v>1.058378722497077e-28</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.020366619315045e-28</v>
+        <v>1.016116744466123e-28</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>9.821415166673297e-29</v>
+        <v>9.731386315139084e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>9.440755932692664e-29</v>
+        <v>9.30792231818782e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>9.071743137155905e-29</v>
+        <v>8.904253935590942e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>8.724431426011804e-29</v>
+        <v>8.533859649133548e-29</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>8.408875445207684e-29</v>
+        <v>8.210217940599111e-29</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>8.135129840691031e-29</v>
+        <v>7.946807291771353e-29</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.913249258410389e-29</v>
+        <v>7.757106184435005e-29</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.753288344313184e-29</v>
+        <v>7.654593100373701e-29</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.665301744347224e-29</v>
+        <v>7.652746521371458e-29</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.659344104460379e-29</v>
+        <v>7.765044929212528e-29</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.745470070600487e-29</v>
+        <v>8.004966805680654e-29</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.796061331543594e-30</v>
+        <v>1.806947910144575e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.307805450340957e-30</v>
+        <v>2.328184046165826e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.192420902465688e-30</v>
+        <v>2.244065943068455e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.946229359381e-30</v>
+        <v>2.968317755787203e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>3.66304814668375e-30</v>
+        <v>3.646992622533083e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>3.723642246601521e-30</v>
+        <v>3.708858140375028e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>6.009143271163956e-30</v>
+        <v>6.031409347367601e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.573913337840277e-29</v>
+        <v>1.579608871300504e-29</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.159561900995963e-29</v>
+        <v>3.168188030355538e-29</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.881562005318928e-29</v>
+        <v>3.895979056647702e-29</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.049286853747533e-29</v>
+        <v>4.057929503134039e-29</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.026625413647347e-29</v>
+        <v>4.019705047940921e-29</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.853597181111438e-29</v>
+        <v>3.843503952483809e-29</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.618723891244757e-29</v>
+        <v>3.617507036058115e-29</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.43310489343774e-29</v>
+        <v>3.439135779476486e-29</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.306894963779057e-29</v>
+        <v>3.309103980013482e-29</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.233975863396383e-29</v>
+        <v>3.22453266458026e-29</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.258237830515595e-29</v>
+        <v>3.261128585325593e-29</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.152581312049951e-29</v>
+        <v>3.160581649672545e-29</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.038932681997777e-29</v>
+        <v>3.034827432413411e-29</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.043584031171572e-29</v>
+        <v>3.0361138336914e-29</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.99507564269501e-29</v>
+        <v>2.989097795431377e-29</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.910567993996126e-29</v>
+        <v>2.907586768100916e-29</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.83035363298054e-29</v>
+        <v>2.829770503416769e-29</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.748855479833898e-29</v>
+        <v>2.749794172369072e-29</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.655527276580818e-29</v>
+        <v>2.657031479957558e-29</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.540307478131492e-29</v>
+        <v>2.54138090517687e-29</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.398080183678786e-29</v>
+        <v>2.398095324614337e-29</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.226620822590542e-29</v>
+        <v>2.225557911021671e-29</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.023933693646188e-29</v>
+        <v>2.02237585186704e-29</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.7955060515689e-29</v>
+        <v>1.794333765096992e-29</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.556545330401097e-29</v>
+        <v>1.556539577765547e-29</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.322908535356726e-29</v>
+        <v>1.324724266422075e-29</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.108694879677335e-29</v>
+        <v>1.112762847957804e-29</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>9.164111462712968e-30</v>
+        <v>9.222905046440115e-30</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>7.438824046629404e-30</v>
+        <v>7.500033343602758e-30</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.90915262888856e-30</v>
+        <v>5.953123062172672e-30</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>4.614331741623663e-30</v>
+        <v>4.632601795224458e-30</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.596350577606065e-30</v>
+        <v>3.593139278654441e-30</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.851064466866975e-30</v>
+        <v>2.835666252527742e-30</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.332018361836855e-30</v>
+        <v>2.311828244910363e-30</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.991191281986073e-30</v>
+        <v>1.971446708019937e-30</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.780562246785408e-30</v>
+        <v>1.764343094074499e-30</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.65211027570516e-30</v>
+        <v>1.64033885529161e-30</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.559669963966599e-30</v>
+        <v>1.551209174445814e-30</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.48256718713361e-30</v>
+        <v>1.475568932618909e-30</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.418649573354671e-30</v>
+        <v>1.411534512771391e-30</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.366181693775775e-30</v>
+        <v>1.357661295988381e-30</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.323428119542938e-30</v>
+        <v>1.312504663355022e-30</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.288653421802226e-30</v>
+        <v>1.274619995956515e-30</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.260122171699653e-30</v>
+        <v>1.242562674877998e-30</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.236098940381247e-30</v>
+        <v>1.214888081204633e-30</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.21484829899303e-30</v>
+        <v>1.190151596021568e-30</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.194864397068825e-30</v>
+        <v>1.167096510935671e-30</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.175778715582865e-30</v>
+        <v>1.145397026366133e-30</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.157574285745185e-30</v>
+        <v>1.125015087536217e-30</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.140234241684364e-30</v>
+        <v>1.105912723908293e-30</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.123741717528954e-30</v>
+        <v>1.088051964944702e-30</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.108079847407514e-30</v>
+        <v>1.071394840107796e-30</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.0932317654486e-30</v>
+        <v>1.05590337885992e-30</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.079180605780785e-30</v>
+        <v>1.041539610663439e-30</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.065909502532623e-30</v>
+        <v>1.028265564980698e-30</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.053401589832669e-30</v>
+        <v>1.016043271274043e-30</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.041640001809495e-30</v>
+        <v>1.004834759005836e-30</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.030607872591657e-30</v>
+        <v>9.946020576384231e-31</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.020288336307715e-30</v>
+        <v>9.853071966341559e-31</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.010664527086224e-30</v>
+        <v>9.769122054553819e-31</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.001719579055755e-30</v>
+        <v>9.693791135644607e-31</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>9.93436626344864e-31</v>
+        <v>9.626699504237399e-31</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.85798803082108e-31</v>
+        <v>9.567467454955679e-31</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>9.787892433960549e-31</v>
+        <v>9.515715282423021e-31</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>9.723910814152614e-31</v>
+        <v>9.471063281262908e-31</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>9.665874512682884e-31</v>
+        <v>9.433131746098856e-31</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>9.613614870836939e-31</v>
+        <v>9.401540971554366e-31</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>9.56696322990044e-31</v>
+        <v>9.375911252252985e-31</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>9.525750931158967e-31</v>
+        <v>9.355862882818213e-31</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>9.489809315898109e-31</v>
+        <v>9.341016157873559e-31</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.458969725403505e-31</v>
+        <v>9.330991372042546e-31</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.433063500960747e-31</v>
+        <v>9.325408819948684e-31</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.411921983855437e-31</v>
+        <v>9.323888796215488e-31</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.395376515373182e-31</v>
+        <v>9.32605159546648e-31</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.383258436799598e-31</v>
+        <v>9.331517512325165e-31</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>9.375399089420287e-31</v>
+        <v>9.339906841415066e-31</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>9.371629814520855e-31</v>
+        <v>9.350839877359693e-31</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>9.371781953386906e-31</v>
+        <v>9.363936914782566e-31</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>9.37568684730405e-31</v>
+        <v>9.378818248307192e-31</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>9.383175837557893e-31</v>
+        <v>9.395104172557095e-31</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>9.394080290307491e-31</v>
+        <v>9.412415030656485e-31</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>9.408320445447783e-31</v>
+        <v>9.4305444605062e-31</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>9.426105030140117e-31</v>
+        <v>9.449848620935078e-31</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>9.447701204403685e-31</v>
+        <v>9.470797608921919e-31</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>9.47337612825766e-31</v>
+        <v>9.49386152144551e-31</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>9.503396961721234e-31</v>
+        <v>9.519510455484653e-31</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>9.538030864813594e-31</v>
+        <v>9.548214508018147e-31</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>9.577544997553949e-31</v>
+        <v>9.580443776024809e-31</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>9.622206519961451e-31</v>
+        <v>9.616668356483407e-31</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>9.672282592055307e-31</v>
+        <v>9.657358346372751e-31</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>9.728040373854695e-31</v>
+        <v>9.702983842671641e-31</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>9.789747025378845e-31</v>
+        <v>9.754014942358897e-31</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>9.857669706646876e-31</v>
+        <v>9.810921742413277e-31</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>9.932075577678008e-31</v>
+        <v>9.874174339813595e-31</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.001323179849147e-30</v>
+        <v>9.944242831538685e-31</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.010140552910637e-30</v>
+        <v>1.002159731456728e-30</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.019686392954193e-30</v>
+        <v>1.010670788587822e-30</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.029987415981734e-30</v>
+        <v>1.020004464245028e-30</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.041070337995185e-30</v>
+        <v>1.030207768126233e-30</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.052961874996453e-30</v>
+        <v>1.041327709929306e-30</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.065688742987463e-30</v>
+        <v>1.053411299352132e-30</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.079277657970139e-30</v>
+        <v>1.066505546092597e-30</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.093755335946388e-30</v>
+        <v>1.080657459848568e-30</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.109148492918135e-30</v>
+        <v>1.095914050317933e-30</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.125483844887297e-30</v>
+        <v>1.112322327198569e-30</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.142788107855803e-30</v>
+        <v>1.129929300188365e-30</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.161087997825556e-30</v>
+        <v>1.148781978985186e-30</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.180464956340616e-30</v>
+        <v>1.168975272361857e-30</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.20129281634777e-30</v>
+        <v>1.190860007573941e-30</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.224042662008177e-30</v>
+        <v>1.214872131969436e-30</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.249185642976101e-30</v>
+        <v>1.241447650219831e-30</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.277192908905795e-30</v>
+        <v>1.271022566996606e-30</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.308535609451528e-30</v>
+        <v>1.304032886971257e-30</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.343684894267526e-30</v>
+        <v>1.340914614815235e-30</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.383111913008055e-30</v>
+        <v>1.382103755200033e-30</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.42728781532739e-30</v>
+        <v>1.428036312797154e-30</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.476683750879744e-30</v>
+        <v>1.479148292278035e-30</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.531770869319391e-30</v>
+        <v>1.535875698314178e-30</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.593020320300584e-30</v>
+        <v>1.598654535577062e-30</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.660903253477609e-30</v>
+        <v>1.6679208087382e-30</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.735890818504658e-30</v>
+        <v>1.744110522469009e-30</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.818454165036014e-30</v>
+        <v>1.827659681441e-30</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.909064442725974e-30</v>
+        <v>1.919004290325696e-30</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.008192801228708e-30</v>
+        <v>2.018580353794493e-30</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.116440650343584e-30</v>
+        <v>2.12695896558659e-30</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.235793101146962e-30</v>
+        <v>2.246146216426244e-30</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.369069647305568e-30</v>
+        <v>2.37901351133745e-30</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.519101288478194e-30</v>
+        <v>2.528444187879224e-30</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.688719024323812e-30</v>
+        <v>2.697321583610754e-30</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.880753854501338e-30</v>
+        <v>2.888529036091175e-30</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.098036778669789e-30</v>
+        <v>3.104949882879725e-30</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.343398796487884e-30</v>
+        <v>3.349467461535342e-30</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.619670907614631e-30</v>
+        <v>3.624965109617253e-30</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.929684111709093e-30</v>
+        <v>3.934326164684738e-30</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>4.276269408429904e-30</v>
+        <v>4.280433964296654e-30</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.662257797436111e-30</v>
+        <v>4.666171846012267e-30</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>5.090480278386832e-30</v>
+        <v>5.094423147390912e-30</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>5.56293120350345e-30</v>
+        <v>5.567229124819659e-30</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>6.071356294875921e-30</v>
+        <v>6.076315843260867e-30</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>6.600632333995228e-30</v>
+        <v>6.606495815694349e-30</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>7.135509503344363e-30</v>
+        <v>7.142454133875354e-30</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>7.660737985405592e-30</v>
+        <v>7.668875889558387e-30</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>8.161067962661906e-30</v>
+        <v>8.170446174498693e-30</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>8.621249617596062e-30</v>
+        <v>8.631850080451272e-30</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>9.026033132690974e-30</v>
+        <v>9.037772699171288e-30</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>9.360168690429028e-30</v>
+        <v>9.372899122413378e-30</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>9.608406473293171e-30</v>
+        <v>9.621914441932732e-30</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>9.755496663766198e-30</v>
+        <v>9.76950374948439e-30</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>9.786189444330722e-30</v>
+        <v>9.800352136823217e-30</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>9.685234997469586e-30</v>
+        <v>9.699144695704305e-30</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>9.438861583297561e-30</v>
+        <v>9.452051472119164e-30</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>9.054325421818998e-30</v>
+        <v>9.066368302374258e-30</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>8.55453086426691e-30</v>
+        <v>8.565111955329346e-30</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>7.962754834889301e-30</v>
+        <v>7.971673506216899e-30</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>7.302274257934011e-30</v>
+        <v>7.309444030269218e-30</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>6.596366057649796e-30</v>
+        <v>6.60181460271953e-30</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>5.868307158284522e-30</v>
+        <v>5.872176298800163e-30</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>5.141374484086338e-30</v>
+        <v>5.143920193743731e-30</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>4.438844959303089e-30</v>
+        <v>4.440437362782545e-30</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.783995508183565e-30</v>
+        <v>3.785118881149859e-30</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.200103054975594e-30</v>
+        <v>3.201355824077968e-30</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.71044452392713e-30</v>
+        <v>2.712539266799291e-30</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.338296839286772e-30</v>
+        <v>2.34206028454689e-30</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.10693692530243e-30</v>
+        <v>2.113309952553142e-30</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.03289392969644e-30</v>
+        <v>2.042831714221561e-30</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.038273174368182e-30</v>
+        <v>2.05134787948195e-30</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.975699777108754e-30</v>
+        <v>1.989072368526512e-30</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.696426381932403e-30</v>
+        <v>1.704828102730444e-30</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.17995543542453e-30</v>
+        <v>1.178543780479459e-30</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>7.424471076957759e-31</v>
+        <v>7.342912037060546e-31</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>5.67456497629034e-31</v>
+        <v>5.597830833201178e-31</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>5.318097172128746e-31</v>
+        <v>5.278663934425911e-31</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.023018320979596e-31</v>
+        <v>5.011965407441386e-31</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.503350811769995e-31</v>
+        <v>4.504175343630704e-31</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.845919770770835e-31</v>
+        <v>3.84658742858241e-31</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.13800749707003e-31</v>
+        <v>3.13096729882365e-31</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.465114460729009e-31</v>
+        <v>2.447220378137776e-31</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.877605718429723e-31</v>
+        <v>1.848571049223827e-31</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.393681390204548e-31</v>
+        <v>1.354663803462181e-31</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.030355315924303e-31</v>
+        <v>9.839046669027132e-32</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>8.046413354602765e-32</v>
+        <v>7.546996655957763e-32</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>7.335532886832305e-32</v>
+        <v>6.854548255911863e-32</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>8.341050154641192e-32</v>
+        <v>7.945761729389544e-32</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.123310355674072e-31</v>
+        <v>1.100469733689277e-31</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.618183149183789e-31</v>
+        <v>1.621541533891898e-31</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.37128925328028e-31</v>
+        <v>2.409993459382037e-31</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.848008547725732e-31</v>
+        <v>3.910449706595953e-31</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>6.53600683080661e-31</v>
+        <v>6.585482371388406e-31</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>9.717586152340973e-31</v>
+        <v>9.735778695523605e-31</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.231939371015189e-30</v>
+        <v>1.23193963609933e-30</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.397039265461043e-30</v>
+        <v>1.397800713282019e-30</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.51944077515052e-30</v>
+        <v>1.522431389822202e-30</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.657332910862713e-30</v>
+        <v>1.662753858505199e-30</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.868899575781534e-30</v>
+        <v>1.875685284699641e-30</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.185358562595774e-30</v>
+        <v>2.191600034412766e-30</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.548015293398316e-30</v>
+        <v>2.552371537884114e-30</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.879458538157898e-30</v>
+        <v>2.88145038524293e-30</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.10227706684332e-30</v>
+        <v>3.102287166618527e-30</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.147358522021676e-30</v>
+        <v>3.146576146465509e-30</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.057194345874038e-30</v>
+        <v>3.056873078746355e-30</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.954181223921898e-30</v>
+        <v>2.955107487195259e-30</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.962452315723944e-30</v>
+        <v>2.964933819777675e-30</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.17397003500154e-30</v>
+        <v>3.177945354163497e-30</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.542577247813433e-30</v>
+        <v>3.548086264046283e-30</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.985057325739908e-30</v>
+        <v>3.992367455561867e-30</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>4.418193187178014e-30</v>
+        <v>4.427799383206413e-30</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>4.758767962102515e-30</v>
+        <v>4.771392711610474e-30</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>4.946549076595893e-30</v>
+        <v>4.962985608676461e-30</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>5.007525603704191e-30</v>
+        <v>5.02804970782346e-30</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>4.987900935755637e-30</v>
+        <v>5.01213306497182e-30</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.933878465078347e-30</v>
+        <v>4.960783736041772e-30</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.890081115961411e-30</v>
+        <v>4.918004992405862e-30</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.876319236545421e-30</v>
+        <v>4.903547742670616e-30</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.892688956369439e-30</v>
+        <v>4.917893780526346e-30</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.938742548989081e-30</v>
+        <v>4.960993322751555e-30</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>5.014032287959896e-30</v>
+        <v>5.032796586124682e-30</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>5.118110446837487e-30</v>
+        <v>5.133253787424218e-30</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>5.250529299177444e-30</v>
+        <v>5.262315143428641e-30</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>5.410841118535435e-30</v>
+        <v>5.419930870916504e-30</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>5.59857671835986e-30</v>
+        <v>5.606028197504834e-30</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>5.810471626879611e-30</v>
+        <v>5.817539898700855e-30</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>6.037722267855084e-30</v>
+        <v>6.045464978765022e-30</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>6.270872996440083e-30</v>
+        <v>6.280103912805548e-30</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>6.500468167788715e-30</v>
+        <v>6.51175717593095e-30</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>6.717052137054999e-30</v>
+        <v>6.73072524324965e-30</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>6.911169259393027e-30</v>
+        <v>6.927308589870153e-30</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>7.073363889956631e-30</v>
+        <v>7.091807690900695e-30</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>7.194180383899918e-30</v>
+        <v>7.214523021449791e-30</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>7.264179829490955e-30</v>
+        <v>7.285772278180572e-30</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>7.27738346314701e-30</v>
+        <v>7.299434307848003e-30</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>7.235490144198405e-30</v>
+        <v>7.257289690417013e-30</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>7.141231021284868e-30</v>
+        <v>7.162181427751964e-30</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>6.99733724304606e-30</v>
+        <v>7.016952521717146e-30</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>6.806539958121848e-30</v>
+        <v>6.824445974177059e-30</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>6.571570315151904e-30</v>
+        <v>6.587504786996007e-30</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>6.295159462775826e-30</v>
+        <v>6.308971962038225e-30</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.980038549633606e-30</v>
+        <v>5.991690501168335e-30</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>5.629181574384773e-30</v>
+        <v>5.638742781523293e-30</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>5.249256062936163e-30</v>
+        <v>5.256851859752429e-30</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>4.849803709206684e-30</v>
+        <v>4.855573836339877e-30</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>4.440441946805505e-30</v>
+        <v>4.444539467761231e-30</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>4.03078820934126e-30</v>
+        <v>4.033379510491547e-30</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>3.630459930422578e-30</v>
+        <v>3.631724721005881e-30</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>3.249074543658631e-30</v>
+        <v>3.249205855779828e-30</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>2.896249482658045e-30</v>
+        <v>2.895453671288441e-30</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.581602181029625e-30</v>
+        <v>2.58009892400695e-30</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.312262937748457e-30</v>
+        <v>2.310279681733604e-30</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.085104948302096e-30</v>
+        <v>2.082854003546854e-30</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.894357613436541e-30</v>
+        <v>1.892030249901204e-30</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.734250331191453e-30</v>
+        <v>1.732016778538779e-30</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.599012499606438e-30</v>
+        <v>1.597021947201646e-30</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.482873516721276e-30</v>
+        <v>1.481254113632048e-30</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.380062780575564e-30</v>
+        <v>1.378921635572044e-30</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.284809689208921e-30</v>
+        <v>1.284232870763715e-30</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.191359934329488e-30</v>
+        <v>1.19141244147342e-30</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.097015122599096e-30</v>
+        <v>1.097735418850634e-30</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.005709055719171e-30</v>
+        <v>1.007097206173769e-30</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>9.222447850094631e-31</v>
+        <v>9.242609015254257e-31</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>8.514253617895951e-31</v>
+        <v>8.539896029880817e-31</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>7.980538373792336e-31</v>
+        <v>8.010464086442547e-31</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>7.669332630980354e-31</v>
+        <v>7.701944165764544e-31</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>7.628666902656964e-31</v>
+        <v>7.661967248672292e-31</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>7.906571702018631e-31</v>
+        <v>7.938164315990777e-31</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>8.550095624730897e-31</v>
+        <v>8.577191941049001e-31</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>9.551281652655274e-31</v>
+        <v>9.571121784772949e-31</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.08190890972794e-30</v>
+        <v>1.082957728951886e-30</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.225557858995461e-30</v>
+        <v>1.225533598092838e-30</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.376281076203253e-30</v>
+        <v>1.375117538464346e-30</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.524284624486271e-30</v>
+        <v>1.521987302630399e-30</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.659774566979678e-30</v>
+        <v>1.65642064315519e-30</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.772956966818611e-30</v>
+        <v>1.768695312602892e-30</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.854037887138062e-30</v>
+        <v>1.849089063537527e-30</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.895161758810101e-30</v>
+        <v>1.889804044363693e-30</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.898617651896787e-30</v>
+        <v>1.893113919374268e-30</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.870002253956822e-30</v>
+        <v>1.864576128809792e-30</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.814914072841103e-30</v>
+        <v>1.809749920082201e-30</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.738951616400495e-30</v>
+        <v>1.734194540603401e-30</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.647713392485869e-30</v>
+        <v>1.643469237785301e-30</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.546797908948049e-30</v>
+        <v>1.543133259039763e-30</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.441803673637999e-30</v>
+        <v>1.438745851778792e-30</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.338329110991328e-30</v>
+        <v>1.335866180581486e-30</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.240854599792094e-30</v>
+        <v>1.238943171160595e-30</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.149939617392797e-30</v>
+        <v>1.148532225601831e-30</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.065284610768102e-30</v>
+        <v>1.064335713816839e-30</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>9.865900268927156e-31</v>
+        <v>9.860560057173098e-31</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>9.13556312741316e-31</v>
+        <v>9.133954712149023e-31</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>8.458839152886773e-31</v>
+        <v>8.460564802213716e-31</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>7.832732815094728e-31</v>
+        <v>7.837414026483745e-31</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>7.254248583784117e-31</v>
+        <v>7.26152608407601e-31</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>6.72039092870179e-31</v>
+        <v>6.729924674107184e-31</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>6.228164319595314e-31</v>
+        <v>6.239633495694649e-31</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.774573226211516e-31</v>
+        <v>5.787676247955056e-31</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>5.356622118297309e-31</v>
+        <v>5.371076630005132e-31</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>4.971315465600146e-31</v>
+        <v>4.98685834096215e-31</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>4.615657737866919e-31</v>
+        <v>4.63204507994282e-31</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>4.286653404844566e-31</v>
+        <v>4.303660546063903e-31</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>3.981306936280471e-31</v>
+        <v>3.998728438442593e-31</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>3.696622801921559e-31</v>
+        <v>3.714272456195643e-31</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>3.429835122524235e-31</v>
+        <v>3.447545111597811e-31</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>3.17971214155633e-31</v>
+        <v>3.197327442590641e-31</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.945650677442372e-31</v>
+        <v>2.963026768799435e-31</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.727049447613418e-31</v>
+        <v>2.744052301927749e-31</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.523307169500644e-31</v>
+        <v>2.539813253679255e-31</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.333822560535141e-31</v>
+        <v>2.349718835757544e-31</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.157994338148254e-31</v>
+        <v>2.173178259866458e-31</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.995221219771068e-31</v>
+        <v>2.009600737709579e-31</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.844901922834692e-31</v>
+        <v>1.858395480990515e-31</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.706435164770435e-31</v>
+        <v>1.718971701413073e-31</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.579219663009401e-31</v>
+        <v>1.590738610680855e-31</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.462654134982714e-31</v>
+        <v>1.473105420497482e-31</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.356137298121653e-31</v>
+        <v>1.365481342566732e-31</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.259067869857337e-31</v>
+        <v>1.267275588592221e-31</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.170844567620902e-31</v>
+        <v>1.177897370277583e-31</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.090866108843636e-31</v>
+        <v>1.096755899326605e-31</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.018531210956568e-31</v>
+        <v>1.023260387442812e-31</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>9.532385913909475e-32</v>
+        <v>9.568200463299531e-32</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>8.943869675779977e-32</v>
+        <v>8.968440876917502e-32</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>8.413750569487865e-32</v>
+        <v>8.427417232317662e-32</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>7.936015769345838e-32</v>
+        <v>7.939221646537718e-32</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>7.504652449664772e-32</v>
+        <v>7.497946236613503e-32</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>7.113647784756851e-32</v>
+        <v>7.09768311958219e-32</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.756988948934117e-32</v>
+        <v>6.732524412480807e-32</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.428663116507663e-32</v>
+        <v>6.396562232345414e-32</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>6.12265746178956e-32</v>
+        <v>6.083888696213067e-32</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>5.833230070425276e-32</v>
+        <v>5.78885805687153e-32</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>5.55779767266167e-32</v>
+        <v>5.508880894296598e-32</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>5.295819258850504e-32</v>
+        <v>5.243343894000311e-32</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.046788056363999e-32</v>
+        <v>4.991666869481448e-32</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>4.810197292573705e-32</v>
+        <v>4.753269634238105e-32</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>4.585540194851853e-32</v>
+        <v>4.527572001769074e-32</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>4.372309990570632e-32</v>
+        <v>4.313993785573097e-32</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>4.16999990710166e-32</v>
+        <v>4.11195479914834e-32</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.978103171817134e-32</v>
+        <v>3.920874855993561e-32</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.796113012089214e-32</v>
+        <v>3.740173769607469e-32</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>3.623522655289576e-32</v>
+        <v>3.569271353488296e-32</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>3.45982532879053e-32</v>
+        <v>3.407587421134903e-32</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>3.304514259963784e-32</v>
+        <v>3.254541786045557e-32</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.157082676181491e-32</v>
+        <v>3.10955426171896e-32</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.017023804815774e-32</v>
+        <v>2.972044661653789e-32</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.883830873238382e-32</v>
+        <v>2.841432799348349e-32</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.756997108821447e-32</v>
+        <v>2.717138488301325e-32</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.636021796328711e-32</v>
+        <v>2.598588824001763e-32</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.520579237137308e-32</v>
+        <v>2.485421300964096e-32</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.410541228989241e-32</v>
+        <v>2.377510837121342e-32</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.305790143558351e-32</v>
+        <v>2.274745062028058e-32</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.206208352518195e-32</v>
+        <v>2.177011605238526e-32</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.111678227542698e-32</v>
+        <v>2.084198096307388e-32</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.022082140305437e-32</v>
+        <v>1.996192164788943e-32</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.937302462480247e-32</v>
+        <v>1.912881440237746e-32</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.857221565740944e-32</v>
+        <v>1.834153552208329e-32</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.781721821761131e-32</v>
+        <v>1.75989613025502e-32</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.710685602214627e-32</v>
+        <v>1.689996803932357e-32</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.643995278775239e-32</v>
+        <v>1.624343202794864e-32</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.581533223116592e-32</v>
+        <v>1.562822956396889e-32</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.523181806912496e-32</v>
+        <v>1.505323694292961e-32</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.468823401836744e-32</v>
+        <v>1.451733046037593e-32</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.418340379562984e-32</v>
+        <v>1.401938641185154e-32</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.371615111765015e-32</v>
+        <v>1.35582810929016e-32</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.32852997011662e-32</v>
+        <v>1.313289079907117e-32</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.288967326291468e-32</v>
+        <v>1.274209182590413e-32</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.252809551963377e-32</v>
+        <v>1.238476046894585e-32</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.219939018806029e-32</v>
+        <v>1.205977302374038e-32</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.190238098493205e-32</v>
+        <v>1.176600578583269e-32</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.163589162698674e-32</v>
+        <v>1.150233505076769e-32</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.139874583096134e-32</v>
+        <v>1.126763711408957e-32</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.118976731359358e-32</v>
+        <v>1.106078827134325e-32</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.100777979162107e-32</v>
+        <v>1.088066481807352e-32</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.085160698178096e-32</v>
+        <v>1.072614304982476e-32</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.072007260081088e-32</v>
+        <v>1.059609926214179e-32</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.061200036544839e-32</v>
+        <v>1.048940975056937e-32</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.052621399243076e-32</v>
+        <v>1.040495081065197e-32</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.046153719849557e-32</v>
+        <v>1.034159873793436e-32</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.04167937003803e-32</v>
+        <v>1.029822982796124e-32</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.039080721482236e-32</v>
+        <v>1.02737203762772e-32</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.038240145855925e-32</v>
+        <v>1.026694667842696e-32</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.039040014832843e-32</v>
+        <v>1.027678502995515e-32</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.041365366740224e-32</v>
+        <v>1.030213652187091e-32</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.045141980635614e-32</v>
+        <v>1.034228106655434e-32</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.050327432956219e-32</v>
+        <v>1.039679423939566e-32</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.056880143609436e-32</v>
+        <v>1.046525945866198e-32</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.064758532502656e-32</v>
+        <v>1.054726014262035e-32</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.07392101954329e-32</v>
+        <v>1.064237970953809e-32</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.084326024638731e-32</v>
+        <v>1.075020157768225e-32</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.095931967696367e-32</v>
+        <v>1.087030916531989e-32</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.108697268623617e-32</v>
+        <v>1.100228589071835e-32</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.122580347327857e-32</v>
+        <v>1.114571517214455e-32</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.13753962371651e-32</v>
+        <v>1.130018042786588e-32</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.153533517696962e-32</v>
+        <v>1.146526507614938e-32</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.170520449176597e-32</v>
+        <v>1.164055253526202e-32</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.188458838062843e-32</v>
+        <v>1.182562622347126e-32</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.207307104263085e-32</v>
+        <v>1.202006955904411e-32</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.227023667684702e-32</v>
+        <v>1.22234659602475e-32</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.247566948235128e-32</v>
+        <v>1.243539884534896e-32</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.268895365821745e-32</v>
+        <v>1.265545163261546e-32</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.290967340351931e-32</v>
+        <v>1.288320774031392e-32</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.313741291733125e-32</v>
+        <v>1.311825058671191e-32</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.337175639872704e-32</v>
+        <v>1.336016359007636e-32</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.361228804678047e-32</v>
+        <v>1.360853016867421e-32</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.385942962099366e-32</v>
+        <v>1.386376450086453e-32</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.412261008305635e-32</v>
+        <v>1.413521483575042e-32</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.441674089054753e-32</v>
+        <v>1.443766740474158e-32</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.475681118565161e-32</v>
+        <v>1.478598549311483e-32</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.515781011055178e-32</v>
+        <v>1.519503238614579e-32</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.563472680743265e-32</v>
+        <v>1.567967136911148e-32</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.620255041847774e-32</v>
+        <v>1.625476572728786e-32</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.687627008587025e-32</v>
+        <v>1.693517874595053e-32</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.767087495179525e-32</v>
+        <v>1.773577371037702e-32</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.860135415843606e-32</v>
+        <v>1.867141390584303e-32</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.968269684797549e-32</v>
+        <v>1.975696261762382e-32</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.092989216259936e-32</v>
+        <v>2.100728313099761e-32</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.23579292444906e-32</v>
+        <v>2.243723873123978e-32</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.397802467131887e-32</v>
+        <v>2.405794056508154e-32</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.577546320858436e-32</v>
+        <v>2.58547083708853e-32</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.772462830940149e-32</v>
+        <v>2.780201959810352e-32</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.979986570224628e-32</v>
+        <v>2.987431417580454e-32</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.197552111558953e-32</v>
+        <v>3.204603203305151e-32</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.422594027790168e-32</v>
+        <v>3.429161309890722e-32</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>3.652546891765931e-32</v>
+        <v>3.658549730244054e-32</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>3.884845276333292e-32</v>
+        <v>3.89021245727143e-32</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>4.116923754339291e-32</v>
+        <v>4.121593483879127e-32</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>4.346119404996485e-32</v>
+        <v>4.350039781698389e-32</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.569324080843836e-32</v>
+        <v>4.572455252822867e-32</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.78330261206212e-32</v>
+        <v>4.785617392414992e-32</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.984819819247508e-32</v>
+        <v>4.986303686099028e-32</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.170640522995433e-32</v>
+        <v>5.171291619498503e-32</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.337529543902015e-32</v>
+        <v>5.337358678237634e-32</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.482251702562869e-32</v>
+        <v>5.48128234794013e-32</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.601571819573684e-32</v>
+        <v>5.599840114229775e-32</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>5.692254715530464e-32</v>
+        <v>5.689809462730669e-32</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>5.751065211028878e-32</v>
+        <v>5.747967879066573e-32</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>5.774768126664707e-32</v>
+        <v>5.771092848861366e-32</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>5.760128283033781e-32</v>
+        <v>5.755961857738973e-32</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>5.703910500731849e-32</v>
+        <v>5.699352391323235e-32</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>5.602879600354814e-32</v>
+        <v>5.598041935238155e-32</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>5.453800402498276e-32</v>
+        <v>5.448807975107424e-32</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>5.253437727758099e-32</v>
+        <v>5.248427996555002e-32</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>4.998556396730318e-32</v>
+        <v>4.993679485205019e-32</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>4.687351923919775e-32</v>
+        <v>4.682766393744985e-32</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>4.327611300241339e-32</v>
+        <v>4.323455814192116e-32</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>3.931064078143684e-32</v>
+        <v>3.927445752184434e-32</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>3.509451930306758e-32</v>
+        <v>3.506446297783185e-32</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.074516529411969e-32</v>
+        <v>3.072167541051079e-32</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.637999548139194e-32</v>
+        <v>2.636319572049295e-32</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.211642659169493e-32</v>
+        <v>2.210612480840196e-32</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.807187535183888e-32</v>
+        <v>1.8067563574861e-32</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.436375848862312e-32</v>
+        <v>1.436461292048246e-32</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.110949272885813e-32</v>
+        <v>1.111437374588981e-32</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>8.426400256809933e-33</v>
+        <v>8.433852678263081e-33</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>6.379436775765231e-33</v>
+        <v>6.38783891704173e-33</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>4.894322078381979e-33</v>
+        <v>4.902282064919771e-33</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>3.87389069343946e-33</v>
+        <v>3.88031160014214e-33</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.220977149714457e-33</v>
+        <v>3.225057000951272e-33</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.83841597598688e-33</v>
+        <v>2.839647745592733e-33</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.629041701034659e-33</v>
+        <v>2.6272133123101e-33</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.496010084053946e-33</v>
+        <v>2.491203398648954e-33</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.374390073333204e-33</v>
+        <v>2.366880440164352e-33</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.257802894145865e-33</v>
+        <v>2.247874848178114e-33</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.14614211697714e-33</v>
+        <v>2.134069636168198e-33</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.039301312312224e-33</v>
+        <v>2.025347817612542e-33</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.937174050636027e-33</v>
+        <v>1.92159240598879e-33</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.839653902433748e-33</v>
+        <v>1.822686414774888e-33</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.746634438190572e-33</v>
+        <v>1.728512857448759e-33</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.658009228391429e-33</v>
+        <v>1.638954747488076e-33</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.573671843521509e-33</v>
+        <v>1.553895098370768e-33</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.493515854065982e-33</v>
+        <v>1.473216923574748e-33</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.417434830509807e-33</v>
+        <v>1.396803236577714e-33</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.345322343338156e-33</v>
+        <v>1.32453705085758e-33</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.277071963036193e-33</v>
+        <v>1.256301379892252e-33</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.212577260088895e-33</v>
+        <v>1.191979237159446e-33</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.151731804981481e-33</v>
+        <v>1.131453636137123e-33</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.09442916819894e-33</v>
+        <v>1.074607590303014e-33</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.040562920226432e-33</v>
+        <v>1.021324113135018e-33</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>9.900266315491016e-34</v>
+        <v>9.714862181110216e-34</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>9.427138726519589e-34</v>
+        <v>9.249769187087766e-34</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>8.985182140201523e-34</v>
+        <v>8.816792284061718e-34</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>8.57333226138819e-34</v>
+        <v>8.414761606810842e-34</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>8.190524794929861e-34</v>
+        <v>8.042507290112839e-34</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.835695445677931e-34</v>
+        <v>7.698859468746507e-34</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.507779918483694e-34</v>
+        <v>7.38264827749054e-34</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.205713918197577e-34</v>
+        <v>7.092703851122793e-34</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.928433149671134e-34</v>
+        <v>6.827856324422209e-34</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.674873317754885e-34</v>
+        <v>6.586935832166742e-34</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.443970127300095e-34</v>
+        <v>6.368772509135055e-34</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.234659283157963e-34</v>
+        <v>6.172196490105745e-34</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.045876490179122e-34</v>
+        <v>5.996037909856877e-34</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.876557453214782e-34</v>
+        <v>5.839126903167063e-34</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.725637877116084e-34</v>
+        <v>5.700293604814841e-34</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>5.592053466733771e-34</v>
+        <v>5.578368149578384e-34</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>5.474739926918997e-34</v>
+        <v>5.472180672236248e-34</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>5.37263296252286e-34</v>
+        <v>5.380561307566932e-34</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>5.284668278396191e-34</v>
+        <v>5.302340190348692e-34</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>5.209781579390161e-34</v>
+        <v>5.236347455360098e-34</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>5.146908570355651e-34</v>
+        <v>5.18141323737945e-34</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>5.094984956143744e-34</v>
+        <v>5.136367671185236e-34</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>5.052946641991054e-34</v>
+        <v>5.100041130255884e-34</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>5.019939155738387e-34</v>
+        <v>5.071513691232482e-34</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>4.995714516441431e-34</v>
+        <v>5.050587885164342e-34</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>4.98013379153321e-34</v>
+        <v>5.037196141900597e-34</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>4.973058048446707e-34</v>
+        <v>5.031270891290355e-34</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>4.974348354614954e-34</v>
+        <v>5.032744563182764e-34</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>4.983865777470948e-34</v>
+        <v>5.041549587426936e-34</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>5.001471384447719e-34</v>
+        <v>5.057618393872019e-34</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>5.027026242978276e-34</v>
+        <v>5.08088341236714e-34</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>5.060391420495595e-34</v>
+        <v>5.111277072761396e-34</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>5.101427984432751e-34</v>
+        <v>5.14873180490397e-34</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>5.149997002222726e-34</v>
+        <v>5.193180038643969e-34</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>5.205959541298482e-34</v>
+        <v>5.244554203830473e-34</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>5.269176669093128e-34</v>
+        <v>5.302786730312701e-34</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>5.339509453039566e-34</v>
+        <v>5.367810047939684e-34</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>5.416818960570934e-34</v>
+        <v>5.439556586560663e-34</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>5.500966259120183e-34</v>
+        <v>5.517958776024713e-34</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>5.591812416120241e-34</v>
+        <v>5.602949046180886e-34</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>5.689218499004281e-34</v>
+        <v>5.694459826878461e-34</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>5.793045575205241e-34</v>
+        <v>5.792423547966498e-34</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>5.903154712156026e-34</v>
+        <v>5.896772639294024e-34</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>6.01940697728985e-34</v>
+        <v>6.007439530710364e-34</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>6.141663438039627e-34</v>
+        <v>6.124356652064549e-34</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>6.269785161838253e-34</v>
+        <v>6.247456433205601e-34</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>6.403633216118968e-34</v>
+        <v>6.376671303982866e-34</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>6.543068668314546e-34</v>
+        <v>6.511933694245244e-34</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>6.687952585858249e-34</v>
+        <v>6.653176033842108e-34</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>6.838146036182965e-34</v>
+        <v>6.800330752622465e-34</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>6.993510086721567e-34</v>
+        <v>6.953330280435309e-34</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>7.153905804907341e-34</v>
+        <v>7.11210704713004e-34</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>7.319194258173167e-34</v>
+        <v>7.276593482555656e-34</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>7.489236513951901e-34</v>
+        <v>7.446722016561129e-34</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>7.663893639676859e-34</v>
+        <v>7.622425078995895e-34</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>7.843026702780905e-34</v>
+        <v>7.803635099708933e-34</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>8.02649677069688e-34</v>
+        <v>7.990284508549202e-34</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>8.214164910858128e-34</v>
+        <v>8.182305735366168e-34</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>8.405892190697324e-34</v>
+        <v>8.379631210008614e-34</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>8.60153967764783e-34</v>
+        <v>8.582193362326027e-34</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>8.800968423348926e-34</v>
+        <v>8.789924604068285e-34</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>9.003586192176743e-34</v>
+        <v>9.002237889706151e-34</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>9.20716204307127e-34</v>
+        <v>9.216668253159074e-34</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>9.409094846342244e-34</v>
+        <v>9.430326500281262e-34</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>9.606783472298664e-34</v>
+        <v>9.640323436926134e-34</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>9.797626791250261e-34</v>
+        <v>9.843769868947891e-34</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>9.97902367350621e-34</v>
+        <v>1.003777660220015e-33</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.014837298937574e-33</v>
+        <v>1.021945444253657e-33</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.030307360916851e-33</v>
+        <v>1.038591419581128e-33</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.044052440319373e-33</v>
+        <v>1.053426666787793e-33</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.055812424176068e-33</v>
+        <v>1.066162266459024e-33</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.065327199517892e-33</v>
+        <v>1.076509299180222e-33</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.072336653375771e-33</v>
+        <v>1.084178845536758e-33</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.07658067278064e-33</v>
+        <v>1.088881986114011e-33</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.077799144763441e-33</v>
+        <v>1.090329801497369e-33</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.07573195635511e-33</v>
+        <v>1.088233372272211e-33</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.070118994586579e-33</v>
+        <v>1.082303779023916e-33</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.060700146488787e-33</v>
+        <v>1.072252102337865e-33</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.047241613218096e-33</v>
+        <v>1.057818668303332e-33</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.029971583022626e-33</v>
+        <v>1.039257255198154e-33</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.009512379259166e-33</v>
+        <v>1.017259682833677e-33</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>9.864989615892166e-34</v>
+        <v>9.925318150030497e-34</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>9.615662896742116e-34</v>
+        <v>9.657795154993496e-34</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>9.353493231756465e-34</v>
+        <v>9.377086481157193e-34</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>9.084830217550236e-34</v>
+        <v>9.090250766453086e-34</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.816023450737703e-34</v>
+        <v>8.804346648811878e-34</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>8.553422527934103e-34</v>
+        <v>8.526432766165298e-34</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>8.303377045753729e-34</v>
+        <v>8.263567756444067e-34</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>8.072236600811584e-34</v>
+        <v>8.022810257579673e-34</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>7.86635078972261e-34</v>
+        <v>7.811218907503514e-34</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>7.692069209101198e-34</v>
+        <v>7.635852344146433e-34</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.555741455562313e-34</v>
+        <v>7.503769205439866e-34</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>7.46368925953994e-34</v>
+        <v>7.421997298426331e-34</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>7.41745080946857e-34</v>
+        <v>7.3922719628359e-34</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>7.408396952387423e-34</v>
+        <v>7.405079484455848e-34</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>7.426597890266534e-34</v>
+        <v>7.449467127211709e-34</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>7.462123825076001e-34</v>
+        <v>7.514482155029153e-34</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>7.50504495878584e-34</v>
+        <v>7.589171831833665e-34</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>7.545431493366193e-34</v>
+        <v>7.662583421550968e-34</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>7.573353630787085e-34</v>
+        <v>7.723764188106583e-34</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.578881573018574e-34</v>
+        <v>7.761761395426087e-34</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.552387539997743e-34</v>
+        <v>7.765911212218509e-34</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.493752288746076e-34</v>
+        <v>7.734645497341914e-34</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>7.414052930430725e-34</v>
+        <v>7.677106334287484e-34</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.32500898535927e-34</v>
+        <v>7.603050323210632e-34</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>7.238339973839509e-34</v>
+        <v>7.522234064266935e-34</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>7.16576541617923e-34</v>
+        <v>7.444414157611988e-34</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>7.119004832686034e-34</v>
+        <v>7.379347203401182e-34</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>7.108623245386605e-34</v>
+        <v>7.3360016075197e-34</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>7.125675552654763e-34</v>
+        <v>7.310025905282347e-34</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.144965451666864e-34</v>
+        <v>7.285973679433802e-34</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.14080075843303e-34</v>
+        <v>7.248059966789053e-34</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.087489288963473e-34</v>
+        <v>7.180499804163138e-34</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>6.966403338684971e-34</v>
+        <v>7.071532533982762e-34</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>6.79052461971034e-34</v>
+        <v>6.927403914357155e-34</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>6.581672122249336e-34</v>
+        <v>6.75939389002702e-34</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>6.361665248451567e-34</v>
+        <v>6.578782640396168e-34</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>6.148889453781875e-34</v>
+        <v>6.395180267969466e-34</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.946421472015727e-34</v>
+        <v>6.210751581310484e-34</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.753073610897685e-34</v>
+        <v>6.025587414033668e-34</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.567657997591564e-34</v>
+        <v>5.839778511929256e-34</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.388986759260681e-34</v>
+        <v>5.653415620786974e-34</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.215872023068861e-34</v>
+        <v>5.46658948639706e-34</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.047125916179902e-34</v>
+        <v>5.279390854549742e-34</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>4.881560565757153e-34</v>
+        <v>5.091910471034756e-34</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.717988098964567e-34</v>
+        <v>4.904239081642501e-34</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.555220642965498e-34</v>
+        <v>4.716467432162707e-34</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.392070324923751e-34</v>
+        <v>4.528686268385609e-34</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.227349272002972e-34</v>
+        <v>4.340986336101272e-34</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.059869611366968e-34</v>
+        <v>4.153458381099932e-34</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>3.88850965317626e-34</v>
+        <v>3.966221807646312e-34</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>3.713745900923574e-34</v>
+        <v>3.780088067594945e-34</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.537696440672027e-34</v>
+        <v>3.596579448740603e-34</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.362554221282276e-34</v>
+        <v>3.417250655869175e-34</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.190512191614971e-34</v>
+        <v>3.243656393766535e-34</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.023763300530297e-34</v>
+        <v>3.07735136721809e-34</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.86450049688891e-34</v>
+        <v>2.91989028100972e-34</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.714916729551437e-34</v>
+        <v>2.772827839927272e-34</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.577204947378104e-34</v>
+        <v>2.6377187487562e-34</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.453558099229551e-34</v>
+        <v>2.516117712282362e-34</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.346169133966363e-34</v>
+        <v>2.409579435291568e-34</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.257231000448844e-34</v>
+        <v>2.319658622569346e-34</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.188936647537645e-34</v>
+        <v>2.247909978901573e-34</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.143187216121841e-34</v>
+        <v>2.195822695667102e-34</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.120230762033171e-34</v>
+        <v>2.1645148323898e-34</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.119733904257432e-34</v>
+        <v>2.154973911005998e-34</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.141362619178617e-34</v>
+        <v>2.168187309182357e-34</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.184782883180736e-34</v>
+        <v>2.205142404585581e-34</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.249660672647719e-34</v>
+        <v>2.266826574882285e-34</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.335661963963678e-34</v>
+        <v>2.35422719773926e-34</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.442452733512564e-34</v>
+        <v>2.468331650823148e-34</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.569699075823053e-34</v>
+        <v>2.610127425825423e-34</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.738394597408341e-34</v>
+        <v>2.801185807371053e-34</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>3.050357014599368e-34</v>
+        <v>3.141083744398943e-34</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>3.625171066245314e-34</v>
+        <v>3.746497821302784e-34</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>4.493495806116055e-34</v>
+        <v>4.645188792253536e-34</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>5.544361363651189e-34</v>
+        <v>5.723304182588006e-34</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>6.654160239489858e-34</v>
+        <v>6.854355289360593e-34</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>7.699284934268323e-34</v>
+        <v>7.911853409622736e-34</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>8.556127948623096e-34</v>
+        <v>8.769309840426155e-34</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>9.102593409616007e-34</v>
+        <v>9.301817862827506e-34</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>9.312966232643975e-34</v>
+        <v>9.485337521645502e-34</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>9.314284399227324e-34</v>
+        <v>9.455691710932004e-34</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>9.247126993544985e-34</v>
+        <v>9.362874688415467e-34</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>9.252073099775835e-34</v>
+        <v>9.356880711824398e-34</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>9.455401648988203e-34</v>
+        <v>9.572191538771211e-34</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>9.844556029768744e-34</v>
+        <v>9.992683101028209e-34</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.032890797167599e-33</v>
+        <v>1.051754086514193e-33</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.081695916817951e-33</v>
+        <v>1.104500650112567e-33</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.121721131275027e-33</v>
+        <v>1.14733216789942e-33</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.144431522375242e-33</v>
+        <v>1.170774919456179e-33</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.148209323068585e-33</v>
+        <v>1.173253249371135e-33</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.135792056598745e-33</v>
+        <v>1.158164411642633e-33</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.10998515870776e-33</v>
+        <v>1.128983203367025e-33</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.073594065137592e-33</v>
+        <v>1.089184421640577e-33</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.029411944182889e-33</v>
+        <v>1.042223213180528e-33</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>9.79669342799424e-34</v>
+        <v>9.906535003289963e-34</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>9.258120781690143e-34</v>
+        <v>9.357722008474859e-34</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>8.692277309142521e-34</v>
+        <v>8.787829473639484e-34</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>8.113038816577398e-34</v>
+        <v>8.208893725063401e-34</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>7.53428111021921e-34</v>
+        <v>7.632951089024616e-34</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.969879996294475e-34</v>
+        <v>7.072037891803198e-34</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>6.433530937753203e-34</v>
+        <v>6.538035787008161e-34</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.932633043705537e-34</v>
+        <v>6.037426316398493e-34</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>5.466797127242245e-34</v>
+        <v>5.570011335251606e-34</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>5.035151033521035e-34</v>
+        <v>5.135178478023447e-34</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.636822607700874e-34</v>
+        <v>4.732315379171236e-34</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>4.270939694940623e-34</v>
+        <v>4.360809673152081e-34</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.936630140398163e-34</v>
+        <v>4.0200489944221e-34</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.633021789232377e-34</v>
+        <v>3.70942097743843e-34</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.359242486602039e-34</v>
+        <v>3.428313256658095e-34</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.114420077665196e-34</v>
+        <v>3.176113466537376e-34</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.897682407580832e-34</v>
+        <v>2.952209241533517e-34</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.708157321507095e-34</v>
+        <v>2.755988216102899e-34</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.544972664602735e-34</v>
+        <v>2.586838024702525e-34</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.407186038056944e-34</v>
+        <v>2.444069143940041e-34</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.291949604928042e-34</v>
+        <v>2.324899066367475e-34</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.194333647270387e-34</v>
+        <v>2.224258490924224e-34</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.109302827812533e-34</v>
+        <v>2.136962101465631e-34</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.031821809282703e-34</v>
+        <v>2.057824581846696e-34</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.95685525440935e-34</v>
+        <v>1.981660615922654e-34</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.879367825920918e-34</v>
+        <v>1.903284887548731e-34</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.794324186545643e-34</v>
+        <v>1.817512080579943e-34</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.696692430782533e-34</v>
+        <v>1.719160362304124e-34</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.584169115374493e-34</v>
+        <v>1.605817436658468e-34</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.46208167404355e-34</v>
+        <v>1.48281676015846e-34</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.337081363321169e-34</v>
+        <v>1.356835541023022e-34</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.215819439738824e-34</v>
+        <v>1.234550987471088e-34</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.104947159827661e-34</v>
+        <v>1.122640307721255e-34</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.011115780119237e-34</v>
+        <v>1.027780709992537e-34</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>9.409765571447481e-35</v>
+        <v>9.566494025035837e-35</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>9.011807474356554e-35</v>
+        <v>9.159235934733145e-35</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>8.983796075233131e-35</v>
+        <v>9.122804911205394e-35</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>9.392243939390804e-35</v>
+        <v>9.523973036640713e-35</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.030366363214347e-34</v>
+        <v>1.042951239322757e-34</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.178456771880322e-34</v>
+        <v>1.19061950631526e-34</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.390146876468636e-34</v>
+        <v>1.402079312860668e-34</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.674156305412568e-34</v>
+        <v>1.686116578837894e-34</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.065086398032738e-34</v>
+        <v>2.07790370978675e-34</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.615152119789744e-34</v>
+        <v>2.630570258500618e-34</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.376906023219983e-34</v>
+        <v>3.397589948858568e-34</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.402900660862279e-34</v>
+        <v>4.432436504742118e-34</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.745688585253538e-34</v>
+        <v>5.78858365003085e-34</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>7.394249561938122e-34</v>
+        <v>7.454834637529659e-34</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>8.75640844734836e-34</v>
+        <v>8.828803258048436e-34</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>8.928533144997392e-34</v>
+        <v>8.991268555681757e-34</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>8.005213358647946e-34</v>
+        <v>8.037471780807326e-34</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>8.225129384456333e-34</v>
+        <v>8.243566057478179e-34</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>9.183719003697805e-34</v>
+        <v>9.202565675708367e-34</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.014450686516355e-33</v>
+        <v>1.017043164970736e-33</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.043690142682673e-33</v>
+        <v>1.046939794389014e-33</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.008482392951858e-33</v>
+        <v>1.012031342740999e-33</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>9.528546930187278e-34</v>
+        <v>9.562837453871876e-34</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>9.209859181476655e-34</v>
+        <v>9.238206234129838e-34</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>9.260740692391263e-34</v>
+        <v>9.279898329795646e-34</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>9.307562483990742e-34</v>
+        <v>9.319043714560909e-34</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>9.172113750284158e-34</v>
+        <v>9.179397065806783e-34</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>8.882925764027929e-34</v>
+        <v>8.888821449927186e-34</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>8.475004690460534e-34</v>
+        <v>8.481572342067782e-34</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>7.983356694821182e-34</v>
+        <v>7.991905217374982e-34</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>7.442987942349398e-34</v>
+        <v>7.454075550995499e-34</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.888904598283205e-34</v>
+        <v>6.902338818074551e-34</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>6.354758357361414e-34</v>
+        <v>6.369636239865096e-34</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.854774112968366e-34</v>
+        <v>5.870059052101845e-34</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.388640312526518e-34</v>
+        <v>5.403593657157122e-34</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.955694861090039e-34</v>
+        <v>4.969886323253293e-34</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.55527566371298e-34</v>
+        <v>4.568583318612609e-34</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.186720625448321e-34</v>
+        <v>4.199330911456252e-34</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.849367651350431e-34</v>
+        <v>3.861775370006789e-34</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.542554646472402e-34</v>
+        <v>3.555562962485515e-34</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>3.265621781218163e-34</v>
+        <v>3.28034127075756e-34</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>3.018551559048678e-34</v>
+        <v>3.036130356128155e-34</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.802848817554324e-34</v>
+        <v>2.82383305894973e-34</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.620238950493379e-34</v>
+        <v>2.644480116834899e-34</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.472447351624002e-34</v>
+        <v>2.499102267396158e-34</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.360876174884474e-34</v>
+        <v>2.388439590118854e-34</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.281494524269646e-34</v>
+        <v>2.308346751169933e-34</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.225761426520205e-34</v>
+        <v>2.250622942955906e-34</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.184999271366303e-34</v>
+        <v>2.206944493510946e-34</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.150530448538282e-34</v>
+        <v>2.168987730869427e-34</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.113677347766337e-34</v>
+        <v>2.128428983065564e-34</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.06576235878075e-34</v>
+        <v>2.076944578133667e-34</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.999046969048085e-34</v>
+        <v>2.007132878942916e-34</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.915359992971528e-34</v>
+        <v>1.920985742107917e-34</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.822116941020083e-34</v>
+        <v>1.825980213042582e-34</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.726803333008706e-34</v>
+        <v>1.729662074474565e-34</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.636904688752091e-34</v>
+        <v>1.639577109131254e-34</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.559873263035177e-34</v>
+        <v>1.563236511287288e-34</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.498052312761576e-34</v>
+        <v>1.502839219882159e-34</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.443218519711425e-34</v>
+        <v>1.449597215869149e-34</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.386273517660637e-34</v>
+        <v>1.393823976615e-34</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.32414115367417e-34</v>
+        <v>1.332252382309137e-34</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.258151241992599e-34</v>
+        <v>1.266311871825656e-34</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.189734411817153e-34</v>
+        <v>1.197539348157236e-34</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.120321292349124e-34</v>
+        <v>1.127471714296619e-34</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.051342512789614e-34</v>
+        <v>1.057645873236356e-34</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>9.842287023399753e-35</v>
+        <v>9.895987279692484e-35</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>9.204020585620501e-35</v>
+        <v>9.248581627684192e-35</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>8.607146419740462e-35</v>
+        <v>8.643422272267404e-35</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>8.050957396541985e-35</v>
+        <v>8.079819464102931e-35</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>7.533905126539088e-35</v>
+        <v>7.556183618114875e-35</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>7.054441220247325e-35</v>
+        <v>7.070925149228882e-35</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>6.611017288182093e-35</v>
+        <v>6.622454472370456e-35</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>6.202084940857619e-35</v>
+        <v>6.209182002463908e-35</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.826095788789344e-35</v>
+        <v>5.829518154434774e-35</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.481501442492589e-35</v>
+        <v>5.481873343208473e-35</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.166753512481759e-35</v>
+        <v>5.164657983709495e-35</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>4.880303609272442e-35</v>
+        <v>4.876282490863533e-35</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.620603343379151e-35</v>
+        <v>4.615157279595184e-35</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.38610432531718e-35</v>
+        <v>4.379692764829841e-35</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.175258165601729e-35</v>
+        <v>4.168299361492798e-35</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.986516474747446e-35</v>
+        <v>3.979387484508796e-35</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.818330863269553e-35</v>
+        <v>3.811367548803149e-35</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.6691529416832e-35</v>
+        <v>3.662649969301102e-35</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.537434320503143e-35</v>
+        <v>3.531645160927507e-35</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.421626610244549e-35</v>
+        <v>3.416763538607622e-35</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.320181421422527e-35</v>
+        <v>3.316415517266649e-35</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.231550364551916e-35</v>
+        <v>3.229011511829524e-35</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.154185050147905e-35</v>
+        <v>3.152961937221528e-35</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.086537088725379e-35</v>
+        <v>3.086677208367639e-35</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.027058090799435e-35</v>
+        <v>3.02856774019305e-35</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.974199666885096e-35</v>
+        <v>2.977043947622878e-35</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.926413427497428e-35</v>
+        <v>2.930516245582279e-35</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.88215098315137e-35</v>
+        <v>2.887395048996289e-35</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.84004539354609e-35</v>
+        <v>2.846278046406708e-35</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.799740224392371e-35</v>
+        <v>2.806805869129494e-35</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.761228747659694e-35</v>
+        <v>2.76898008014393e-35</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.724504573244837e-35</v>
+        <v>2.732802591203908e-35</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.689561311044481e-35</v>
+        <v>2.698275314063225e-35</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.656392570955409e-35</v>
+        <v>2.665400160475772e-35</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.624991962874396e-35</v>
+        <v>2.634179042195439e-35</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.595353096698133e-35</v>
+        <v>2.60461387097603e-35</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.567469582323396e-35</v>
+        <v>2.576706558571432e-35</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.541335029646956e-35</v>
+        <v>2.550459016735531e-35</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.516943048565515e-35</v>
+        <v>2.525873157222138e-35</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.494287248975863e-35</v>
+        <v>2.502950891785158e-35</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.473361240774708e-35</v>
+        <v>2.481694132178411e-35</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.454158633858817e-35</v>
+        <v>2.462104790155777e-35</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.436673038124955e-35</v>
+        <v>2.444184777471133e-35</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.420898063469838e-35</v>
+        <v>2.427936005878308e-35</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.406827319790228e-35</v>
+        <v>2.413360387131177e-35</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.394454416982885e-35</v>
+        <v>2.400459832983612e-35</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.383772964944534e-35</v>
+        <v>2.38923625518945e-35</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.374776573571935e-35</v>
+        <v>2.379691565502565e-35</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.367458852761842e-35</v>
+        <v>2.371827675676822e-35</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.361813412410988e-35</v>
+        <v>2.365646497466069e-35</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.357833862416132e-35</v>
+        <v>2.361149942624175e-35</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.355513812674014e-35</v>
+        <v>2.358339922904993e-35</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.354846873081386e-35</v>
+        <v>2.357218350062389e-35</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.355826653534995e-35</v>
+        <v>2.357787135850222e-35</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.358446763931589e-35</v>
+        <v>2.360048192022353e-35</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.362700814167917e-35</v>
+        <v>2.364003430332643e-35</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.36858241414072e-35</v>
+        <v>2.369654762534945e-35</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.376085173746757e-35</v>
+        <v>2.37700410038313e-35</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.38520270288277e-35</v>
+        <v>2.386053355631055e-35</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.395928611445498e-35</v>
+        <v>2.39680444003257e-35</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.408256509331706e-35</v>
+        <v>2.409259265341554e-35</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.422180006438121e-35</v>
+        <v>2.423419743311844e-35</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.437692712661516e-35</v>
+        <v>2.439287785697327e-35</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.454906487695846e-35</v>
+        <v>2.456978443634183e-35</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>2.474491928102704e-35</v>
+        <v>2.477141358131689e-35</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.497284497616975e-35</v>
+        <v>2.500583912289099e-35</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.524119683869828e-35</v>
+        <v>2.528113512069228e-35</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.555832974492339e-35</v>
+        <v>2.560537563434797e-35</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.593259857115693e-35</v>
+        <v>2.598663472348634e-35</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.637235819370991e-35</v>
+        <v>2.643298644773485e-35</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.688596348889311e-35</v>
+        <v>2.695250486672072e-35</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.748176933301871e-35</v>
+        <v>2.755326404007259e-35</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.816813060239759e-35</v>
+        <v>2.824333802741776e-35</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.895340217334024e-35</v>
+        <v>2.903080088838318e-35</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.984529089677864e-35</v>
+        <v>2.992309047473753e-35</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.083992831947384e-35</v>
+        <v>3.091628042363715e-35</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.192346450525251e-35</v>
+        <v>3.199664491362021e-35</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.308172245139369e-35</v>
+        <v>3.315013702112823e-35</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.43005251551725e-35</v>
+        <v>3.436270982259878e-35</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.556569561386828e-35</v>
+        <v>3.562031639447363e-35</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.686305682475712e-35</v>
+        <v>3.690890981319131e-35</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.817843178511495e-35</v>
+        <v>3.821444315519024e-35</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.949764349222131e-35</v>
+        <v>3.952286949691238e-35</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>4.080651494335216e-35</v>
+        <v>4.082014191479615e-35</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.209086913578349e-35</v>
+        <v>4.209221348528003e-35</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.333652906679479e-35</v>
+        <v>4.332503728480591e-35</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.4529317733662e-35</v>
+        <v>4.450456638981219e-35</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.565505813366135e-35</v>
+        <v>4.561675387673756e-35</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.669957326407194e-35</v>
+        <v>4.664755282202357e-35</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.7660149220065e-35</v>
+        <v>4.759441349698071e-35</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.85869585634714e-35</v>
+        <v>4.850782995033757e-35</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.954541566689075e-35</v>
+        <v>4.945358337834725e-35</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>5.060093632562345e-35</v>
+        <v>5.049745640419533e-35</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>5.181893633497272e-35</v>
+        <v>5.170523165107024e-35</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.326483149023905e-35</v>
+        <v>5.314269174215775e-35</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.500403758672212e-35</v>
+        <v>5.487561930064274e-35</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.71019704197264e-35</v>
+        <v>5.696979694971492e-35</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.962397641187561e-35</v>
+        <v>5.949093662623099e-35</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>6.261391207299467e-35</v>
+        <v>6.248285341776905e-35</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>6.606382886491874e-35</v>
+        <v>6.593657637511285e-35</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>6.995812889391415e-35</v>
+        <v>6.983534034403782e-35</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>7.42812142662456e-35</v>
+        <v>7.416238017031769e-35</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>7.901748708818972e-35</v>
+        <v>7.890093069973819e-35</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>8.415134946601159e-35</v>
+        <v>8.403422677807342e-35</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>8.966720350597492e-35</v>
+        <v>8.954550325109617e-35</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>9.554945131435845e-35</v>
+        <v>9.541799496459426e-35</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.017776674282699e-34</v>
+        <v>1.016303042994339e-34</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.082725177866343e-34</v>
+        <v>1.081045058054044e-34</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.149152955734264e-34</v>
+        <v>1.147248925112683e-34</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.215865735072525e-34</v>
+        <v>1.213750660977349e-34</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.28166924306737e-34</v>
+        <v>1.279386282455316e-34</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.345369206904859e-34</v>
+        <v>1.342991806353679e-34</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.405771353771065e-34</v>
+        <v>1.403403249479538e-34</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.461681410852218e-34</v>
+        <v>1.459456628640157e-34</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.511905105334384e-34</v>
+        <v>1.509987960642635e-34</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.555224751778087e-34</v>
+        <v>1.553805662077305e-34</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.590089358122788e-34</v>
+        <v>1.589325227562898e-34</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.614699785543286e-34</v>
+        <v>1.614669621327672e-34</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.627250980689516e-34</v>
+        <v>1.627954835200816e-34</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.625937890211343e-34</v>
+        <v>1.627296861011441e-34</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.608955460758682e-34</v>
+        <v>1.61081169058871e-34</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.57449977651247e-34</v>
+        <v>1.576616476492457e-34</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.522612570480085e-34</v>
+        <v>1.524711661629782e-34</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.458934415352827e-34</v>
+        <v>1.460810715449761e-34</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.3901635599934e-34</v>
+        <v>1.391706354599321e-34</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.322998252770673e-34</v>
+        <v>1.324191295225096e-34</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.262796864087458e-34</v>
+        <v>1.263700866059333e-34</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.209673122086252e-34</v>
+        <v>1.21035721689003e-34</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.162457698864795e-34</v>
+        <v>1.162982674557699e-34</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.119981266520647e-34</v>
+        <v>1.120399565902671e-34</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.081074497151494e-34</v>
+        <v>1.081430217765405e-34</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.044568062854979e-34</v>
+        <v>1.044896956986319e-34</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.009292635728777e-34</v>
+        <v>1.009622110405856e-34</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>9.740788878704674e-35</v>
+        <v>9.744280048643694e-35</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>9.377574913777593e-35</v>
+        <v>9.381369672023404e-35</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.993538286514104e-35</v>
+        <v>8.997667817271518e-35</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>8.590144447547045e-35</v>
+        <v>8.594606976577513e-35</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>8.172863579580956e-35</v>
+        <v>8.177639741602211e-35</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>7.747170863379673e-35</v>
+        <v>7.752223721244845e-35</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>7.318541479708164e-35</v>
+        <v>7.323816524405783e-35</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>6.892450609331406e-35</v>
+        <v>6.897875759985391e-35</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>6.474373433013222e-35</v>
+        <v>6.479859036882891e-35</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>6.069785131518593e-35</v>
+        <v>6.075223963998658e-35</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.68413424386398e-35</v>
+        <v>5.689401678644913e-35</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.320286151793069e-35</v>
+        <v>5.325256659439771e-35</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>4.976401521147346e-35</v>
+        <v>4.98097871803434e-35</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>4.650141635675574e-35</v>
+        <v>4.654261473531369e-35</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.33916777912745e-35</v>
+        <v>4.342798545034542e-35</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.041141235252617e-35</v>
+        <v>4.044283551647489e-35</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>3.75372328779992e-35</v>
+        <v>3.756410112473039e-35</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.474575220519011e-35</v>
+        <v>3.476871846614835e-35</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.201358317159516e-35</v>
+        <v>3.203362373176486e-35</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.931836559348727e-35</v>
+        <v>2.933676498453062e-35</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.666208963069873e-35</v>
+        <v>2.668008243730186e-35</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.407150828534445e-35</v>
+        <v>2.408991488370575e-35</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.157448404536048e-35</v>
+        <v>2.159369428264947e-35</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.919887939869199e-35</v>
+        <v>1.921885259304934e-35</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.697255683327544e-35</v>
+        <v>1.699282177381293e-35</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.492337883705375e-35</v>
+        <v>1.494303378385431e-35</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.307920789796923e-35</v>
+        <v>1.309692058208693e-35</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.146790650395928e-35</v>
+        <v>1.148191412741932e-35</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.011490164301427e-35</v>
+        <v>1.012327664660041e-35</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>9.035100866865099e-36</v>
+        <v>9.03689883706049e-36</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>8.240572245493451e-36</v>
+        <v>8.236141765762066e-36</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>7.743359364477705e-36</v>
+        <v>7.734333123850357e-36</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>7.553928256566845e-36</v>
+        <v>7.542648824042008e-36</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>7.672529934484291e-36</v>
+        <v>7.661116074563832e-36</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>8.049900731640508e-36</v>
+        <v>8.040040729231685e-36</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>8.617357426505505e-36</v>
+        <v>8.610259777088589e-36</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>9.306169840966128e-36</v>
+        <v>9.30256313136298e-36</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.004749071018711e-35</v>
+        <v>1.004762748336399e-35</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.076976763200145e-35</v>
+        <v>1.077351367834088e-35</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.139873630371274e-35</v>
+        <v>1.140566017552531e-35</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.186001398325719e-35</v>
+        <v>1.186939090423247e-35</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.207921792857288e-35</v>
+        <v>1.209002979377941e-35</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.198202482018434e-35</v>
+        <v>1.199296027431734e-35</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.155587113602918e-35</v>
+        <v>1.156540689877361e-35</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.096674411680588e-35</v>
+        <v>1.097338009865946e-35</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.041270914991456e-35</v>
+        <v>1.041501069272347e-35</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.008161748008405e-35</v>
+        <v>1.007825931739392e-35</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>9.969682305147333e-36</v>
+        <v>9.960273347608282e-36</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>9.902827633921132e-36</v>
+        <v>9.888643871965635e-36</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>9.70105178472369e-36</v>
+        <v>9.685061791973219e-36</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>9.22498451254129e-36</v>
+        <v>9.211366703982054e-36</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>8.507255881143354e-36</v>
+        <v>8.499354978620976e-36</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>7.626001139593927e-36</v>
+        <v>7.625787525014715e-36</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>6.659355826621089e-36</v>
+        <v>6.667425538510547e-36</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>5.685455480953223e-36</v>
+        <v>5.701030214456052e-36</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.782430209673898e-36</v>
+        <v>4.803357430588097e-36</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.008934742241553e-36</v>
+        <v>4.032096560919596e-36</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.360389767392276e-36</v>
+        <v>3.383030499593271e-36</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.819404598828396e-36</v>
+        <v>2.839399732871849e-36</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.368588550254034e-36</v>
+        <v>2.384444747019853e-36</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.990550935372987e-36</v>
+        <v>2.001406028301486e-36</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.667901067888069e-36</v>
+        <v>1.673524062979953e-36</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.383248567603807e-36</v>
+        <v>1.38403964527328e-36</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.133476208785229e-36</v>
+        <v>1.130552412039251e-36</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>9.487349473025925e-37</v>
+        <v>9.438568945988946e-37</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>8.228498541963535e-37</v>
+        <v>8.175140814494148e-37</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.421946035391308e-37</v>
+        <v>7.374825634735285e-37</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.931428694033522e-37</v>
+        <v>6.897209315537651e-37</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.620683258616956e-37</v>
+        <v>6.60187776572901e-37</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.372145338963002e-37</v>
+        <v>6.367707172907617e-37</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.156905724480887e-37</v>
+        <v>6.165032899022551e-37</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>5.972302902920304e-37</v>
+        <v>5.991268169155003e-37</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>5.815679391308173e-37</v>
+        <v>5.843830365101799e-37</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>5.684377706671926e-37</v>
+        <v>5.720136868660258e-37</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.575740366038902e-37</v>
+        <v>5.617605061627606e-37</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.487109886436163e-37</v>
+        <v>5.533652325800808e-37</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.415828784891067e-37</v>
+        <v>5.465696042977113e-37</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.359239578430913e-37</v>
+        <v>5.411153594953709e-37</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>5.314684784082853e-37</v>
+        <v>5.367442363527645e-37</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>5.279506918874227e-37</v>
+        <v>5.331979730496154e-37</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>5.251051322560967e-37</v>
+        <v>5.302185975617933e-37</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>5.227205754738865e-37</v>
+        <v>5.276038255354946e-37</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>5.207041776744536e-37</v>
+        <v>5.252729079226523e-37</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>5.189787111541294e-37</v>
+        <v>5.231611280481802e-37</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>5.174669482092507e-37</v>
+        <v>5.212037692369983e-37</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>5.160916611361539e-37</v>
+        <v>5.193361148140265e-37</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>5.147756222311713e-37</v>
+        <v>5.174934481041793e-37</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>5.134416037906395e-37</v>
+        <v>5.156110524323765e-37</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>5.120123781108945e-37</v>
+        <v>5.136242111235377e-37</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>5.104107174882689e-37</v>
+        <v>5.114682075025777e-37</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>5.085593942191009e-37</v>
+        <v>5.090783248944186e-37</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>5.06381180599722e-37</v>
+        <v>5.063898466239738e-37</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>5.037988489264689e-37</v>
+        <v>5.033380560161634e-37</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>5.007351714956793e-37</v>
+        <v>4.998582363959089e-37</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>4.971129206036828e-37</v>
+        <v>4.958856710881217e-37</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>4.928548685468171e-37</v>
+        <v>4.913556434177232e-37</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>4.878837876214219e-37</v>
+        <v>4.862034367096359e-37</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>4.821224501238234e-37</v>
+        <v>4.80364334288769e-37</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.754936283503604e-37</v>
+        <v>4.737736194800444e-37</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.680034644398211e-37</v>
+        <v>4.664444026554426e-37</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>4.600426371615174e-37</v>
+        <v>4.587487651236781e-37</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>4.521126195128148e-37</v>
+        <v>4.51162216331835e-37</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>4.447148947786292e-37</v>
+        <v>4.441602753305843e-37</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>4.383509462438981e-37</v>
+        <v>4.382184611706182e-37</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>4.335222571935518e-37</v>
+        <v>4.338122929026218e-37</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>4.30730310912522e-37</v>
+        <v>4.314172895772812e-37</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>4.304765906857338e-37</v>
+        <v>4.315089702452771e-37</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>4.332625797981166e-37</v>
+        <v>4.345628539572934e-37</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>4.395897615346055e-37</v>
+        <v>4.410544597640206e-37</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>4.499596191801299e-37</v>
+        <v>4.514593067161423e-37</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>4.648736360196043e-37</v>
+        <v>4.662529138643283e-37</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>4.848332953379855e-37</v>
+        <v>4.8591080025929e-37</v>
       </c>
     </row>
   </sheetData>
